--- a/Implicit_bias_pavlovia/task/html/resources/instructs.xlsx
+++ b/Implicit_bias_pavlovia/task/html/resources/instructs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\GitHub\OpenBrains\Implicit_bias_pavlovia\task\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\GitHub\OpenBrains\Implicit_bias_pavlovia\task\html\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15461A21-01C7-47BB-83EB-FB70781FAA09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98D0CDD-A33C-4CD2-A4B9-394D42979F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-11595" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,16 +33,16 @@
     <t>pageN</t>
   </si>
   <si>
-    <t xml:space="preserve">Se te presentarán palabras o imágenes a clasificar en categorías usando las letras "A" o "L".. 
-Intenta ir lo más rápido posible mientras haces los menores errores posibles.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ten en cuenta que... 
 1) Se indica qué categoría pertenece a cada letra.
 2) Cada palabra o imagen pertenece a una sola categoría. 
 3) Has de manterer un dedo encima de la letra "L" y otro encima de la letra "A" para ir lo más rápido posible.
 4) Has de intentar ir lo más rápido posible, de lo contrario el test no es informativo.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se te presentarán palabras o imágenes a clasificar en categorías usando las letras "A" o "L". 
+Intenta ir lo más rápido posible mientras haces los menores errores posibles.
 </t>
   </si>
 </sst>
@@ -373,7 +373,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -394,7 +394,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
@@ -402,7 +402,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Implicit_bias_pavlovia/task/html/resources/instructs.xlsx
+++ b/Implicit_bias_pavlovia/task/html/resources/instructs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\GitHub\OpenBrains\Implicit_bias_pavlovia\task\html\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\GitHub\OpenBrains\Implicit_bias_pavlovia\task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98D0CDD-A33C-4CD2-A4B9-394D42979F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790382DB-61BF-4A14-A58A-4D6CEDDD16E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-11595" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,14 +34,14 @@
   </si>
   <si>
     <t xml:space="preserve">Ten en cuenta que... 
-1) Se indica qué categoría pertenece a cada letra.
-2) Cada palabra o imagen pertenece a una sola categoría. 
-3) Has de manterer un dedo encima de la letra "L" y otro encima de la letra "A" para ir lo más rápido posible.
-4) Has de intentar ir lo más rápido posible, de lo contrario el test no es informativo.
+1) Cada palabra o imagen pertenece a una sola categoría. 
+2) Has de manterer un dedo encima de la letra "L" y otro encima de la letra "A" para ir lo más rápido posible.
+3) Has de intentar ir lo más rápido posible, de lo contrario el test no es informativo.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Se te presentarán palabras o imágenes a clasificar en categorías usando las letras "A" o "L". 
+    <t xml:space="preserve">Bienvenido a este experimento de Open Brains! :) 
+A continuación se te presentarán palabras o imágenes a clasificar en categorías usando las letras "A" o "L"
 Intenta ir lo más rápido posible mientras haces los menores errores posibles.
 </t>
   </si>
@@ -389,7 +389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="170" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -397,7 +397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
